--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus</t>
@@ -371,7 +371,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0D5F0-DE9D-46C2-8568-1E735DDF77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144B275-735E-4F04-ABD3-4D7103C9E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,16 +243,16 @@
     <t>ที่ตั้งของส านักงานแห่งใหญ</t>
   </si>
   <si>
-    <t>[][ชื่อหุ้นส่วนผู้จัดการ][][][]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>[|Limited|Test|Automation|0|O]</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -615,10 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,7 +924,7 @@
         <v>57</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3" t="s">
@@ -933,13 +934,13 @@
         <v>55</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144B275-735E-4F04-ABD3-4D7103C9E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EB9A07-733E-43A8-A8A4-84A30260A787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>[|Limited|Test|Automation|0|O]</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EB9A07-733E-43A8-A8A4-84A30260A787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E85A18-8F18-4788-B5F1-DE4508CCBEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>creationDate</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +931,7 @@
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>55</v>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E85A18-8F18-4788-B5F1-DE4508CCBEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588D688-6E0C-4EFE-828D-27795DB5ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,10 @@
     <t>[|Limited|Test|Automation|0|O]</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>55</v>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588D688-6E0C-4EFE-828D-27795DB5ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D6FD6B-4FDF-41EA-A4E9-F4B5573F86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2355" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -625,56 +625,55 @@
       <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.7109375" style="1" customWidth="1"/>
     <col min="37" max="40" width="9" style="1" customWidth="1"/>
     <col min="41" max="41" width="10" style="1" customWidth="1"/>
-    <col min="42" max="43" width="12.77734375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.21875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="18.44140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.21875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="8.77734375" style="1" customWidth="1"/>
-    <col min="49" max="53" width="2.6640625" style="1"/>
-    <col min="56" max="16384" width="2.6640625" style="1"/>
+    <col min="42" max="43" width="12.7109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" style="1" customWidth="1"/>
+    <col min="49" max="53" width="2.7109375" style="1"/>
+    <col min="56" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,7 +824,7 @@
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D6FD6B-4FDF-41EA-A4E9-F4B5573F86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD5DE0-A87F-4425-A149-EB0D11CF6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2355" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD5DE0-A87F-4425-A149-EB0D11CF6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17EFD5E-5BFC-47DC-8488-04463A399CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -322,9 +322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
+++ b/Data Files/Input Validation/05. detail1/14. Typecode 271/Auto_Detail1_TC271_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB771C4D-6DE6-4906-9657-604923FB3C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A4CA3-E6E1-431C-8258-9DC61D6DD6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -249,13 +249,13 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>[|Limited|Test|Automation|0|O]</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|Limited|Test|Automation||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -322,9 +322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,7 +622,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,11 +926,11 @@
         <v>57</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>55</v>
